--- a/notebooks/SEC61A1/input/SEC61A1_ADTKD5_individuals.xlsx
+++ b/notebooks/SEC61A1/input/SEC61A1_ADTKD5_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SEC61A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FF365-7806-7D4B-9952-C04402F4052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E743583-0CD2-394F-8591-12A2C6254E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3220" windowWidth="35100" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3220" windowWidth="30240" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="171">
   <si>
     <t>PMID</t>
   </si>
@@ -257,15 +257,9 @@
     <t>HP:0004732</t>
   </si>
   <si>
-    <t>Abnormal circulating renin</t>
-  </si>
-  <si>
     <t>HP:0040084</t>
   </si>
   <si>
-    <t>Abnormal circulating aldosterone</t>
-  </si>
-  <si>
     <t>HP:0040085</t>
   </si>
   <si>
@@ -459,6 +453,99 @@
   </si>
   <si>
     <t>Acute kidney injury</t>
+  </si>
+  <si>
+    <t>PMID:39135939</t>
+  </si>
+  <si>
+    <t>Hypoaldosteronism due to a novel SEC61A1 variant successfully treated with fludrocortisone</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>P3M</t>
+  </si>
+  <si>
+    <t>Failure to thrive</t>
+  </si>
+  <si>
+    <t>HP:0001508</t>
+  </si>
+  <si>
+    <t>Stage 4 chronic kidney disease</t>
+  </si>
+  <si>
+    <t>HP:0012626</t>
+  </si>
+  <si>
+    <t>P1Y2M</t>
+  </si>
+  <si>
+    <t>Decreased circulating aldosterone concentration</t>
+  </si>
+  <si>
+    <t>HP:0004319</t>
+  </si>
+  <si>
+    <t>P9Y</t>
+  </si>
+  <si>
+    <t>Global glomerulosclerosis</t>
+  </si>
+  <si>
+    <t>HP:0004737</t>
+  </si>
+  <si>
+    <t>Tubulointerstitial fibrosis</t>
+  </si>
+  <si>
+    <t>HP:0005576</t>
+  </si>
+  <si>
+    <t>Podocyte foot process effacement</t>
+  </si>
+  <si>
+    <t>HP:0031266</t>
+  </si>
+  <si>
+    <t>Thickened glomerular basement membrane</t>
+  </si>
+  <si>
+    <t>HP:0004722</t>
+  </si>
+  <si>
+    <t>c.1372T&gt;G</t>
+  </si>
+  <si>
+    <t>NP_037468.1:p.(Phe458Val)</t>
+  </si>
+  <si>
+    <t>P7Y</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgG concentration</t>
+  </si>
+  <si>
+    <t>HP:0004315</t>
+  </si>
+  <si>
+    <t>Decreased circulating IgA concentration</t>
+  </si>
+  <si>
+    <t>HP:0002720</t>
+  </si>
+  <si>
+    <t>Decreased circulating total IgM</t>
+  </si>
+  <si>
+    <t>HP:0002850</t>
+  </si>
+  <si>
+    <t>Abnormal circulating aldosterone concentration</t>
+  </si>
+  <si>
+    <t>Abnormal circulating renin concentration</t>
   </si>
 </sst>
 </file>
@@ -836,18 +923,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="34" width="8.83203125" customWidth="1"/>
+    <col min="5" max="36" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,121 +987,151 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AX1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BA1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>141</v>
+      <c r="BH1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1067,121 +1184,151 @@
         <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
         <v>39</v>
       </c>
       <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU2" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AV2" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AW2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX2" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD2" t="s">
         <v>117</v>
       </c>
-      <c r="AX2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BE2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG2" t="s">
         <v>126</v>
       </c>
-      <c r="BA2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>140</v>
+      <c r="BH2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1207,13 +1354,13 @@
         <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
         <v>60</v>
@@ -1225,7 +1372,7 @@
         <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q3" t="s">
         <v>38</v>
@@ -1239,68 +1386,71 @@
       <c r="T3" t="s">
         <v>58</v>
       </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
       <c r="V3" t="s">
         <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
         <v>59</v>
       </c>
       <c r="AA3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3" t="s">
         <v>58</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AC3" t="s">
         <v>58</v>
       </c>
       <c r="AN3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO3" t="s">
         <v>58</v>
       </c>
       <c r="AP3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AU3" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AV3" t="s">
         <v>58</v>
       </c>
       <c r="AX3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA3" t="s">
         <v>58</v>
       </c>
-      <c r="BB3" t="s">
-        <v>58</v>
-      </c>
       <c r="BC3" t="s">
         <v>58</v>
       </c>
+      <c r="BD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1326,7 +1476,7 @@
         <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -1341,7 +1491,7 @@
         <v>67</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q4" t="s">
         <v>38</v>
@@ -1355,23 +1505,20 @@
       <c r="T4" t="s">
         <v>58</v>
       </c>
-      <c r="U4" t="s">
-        <v>58</v>
-      </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA4" t="s">
         <v>58</v>
@@ -1391,57 +1538,63 @@
       <c r="AF4" t="s">
         <v>58</v>
       </c>
-      <c r="AH4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>59</v>
+      <c r="AG4" t="s">
+        <v>58</v>
       </c>
       <c r="AJ4" t="s">
         <v>58</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" t="s">
         <v>59</v>
       </c>
       <c r="AL4" t="s">
         <v>58</v>
       </c>
-      <c r="AM4" s="3"/>
+      <c r="AM4" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="AN4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>58</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO4" s="3"/>
       <c r="AP4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR4" t="s">
         <v>59</v>
       </c>
       <c r="AU4" t="s">
         <v>58</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AV4" t="s">
         <v>58</v>
       </c>
       <c r="AX4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA4" t="s">
         <v>58</v>
       </c>
-      <c r="BB4" t="s">
-        <v>58</v>
-      </c>
       <c r="BC4" t="s">
         <v>58</v>
       </c>
+      <c r="BD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1620,7 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1482,7 +1635,7 @@
         <v>67</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q5" t="s">
         <v>38</v>
@@ -1496,23 +1649,20 @@
       <c r="T5" t="s">
         <v>58</v>
       </c>
-      <c r="U5" t="s">
-        <v>58</v>
-      </c>
       <c r="V5" t="s">
         <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="X5" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA5" t="s">
         <v>58</v>
@@ -1520,44 +1670,50 @@
       <c r="AB5" t="s">
         <v>58</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AC5" t="s">
         <v>58</v>
       </c>
       <c r="AN5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO5" t="s">
         <v>58</v>
       </c>
       <c r="AP5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AU5" t="s">
         <v>58</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AV5" t="s">
         <v>58</v>
       </c>
       <c r="AX5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA5" t="s">
         <v>58</v>
       </c>
-      <c r="BB5" t="s">
-        <v>58</v>
-      </c>
       <c r="BC5" t="s">
         <v>58</v>
       </c>
+      <c r="BD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1583,16 +1739,16 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
         <v>63</v>
@@ -1601,7 +1757,7 @@
         <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q6" t="s">
         <v>38</v>
@@ -1615,20 +1771,17 @@
       <c r="T6" t="s">
         <v>58</v>
       </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
         <v>59</v>
@@ -1637,15 +1790,15 @@
         <v>59</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" t="s">
         <v>58</v>
       </c>
       <c r="AF6" t="s">
         <v>58</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>58</v>
       </c>
       <c r="AJ6" t="s">
@@ -1654,53 +1807,59 @@
       <c r="AL6" t="s">
         <v>58</v>
       </c>
-      <c r="AM6" t="s">
-        <v>59</v>
-      </c>
       <c r="AN6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AO6" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="AP6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AU6" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>59</v>
       </c>
       <c r="AW6" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AX6" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>91</v>
       </c>
       <c r="AZ6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB6" t="s">
         <v>58</v>
       </c>
       <c r="BC6" t="s">
         <v>58</v>
       </c>
+      <c r="BD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1885,7 @@
         <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -1735,13 +1894,13 @@
         <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O7" t="s">
         <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q7" t="s">
         <v>38</v>
@@ -1750,28 +1909,25 @@
         <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T7" t="s">
-        <v>136</v>
-      </c>
-      <c r="U7" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="Z7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA7" t="s">
         <v>58</v>
@@ -1779,58 +1935,64 @@
       <c r="AB7" t="s">
         <v>58</v>
       </c>
-      <c r="AL7" t="s">
-        <v>59</v>
+      <c r="AC7" t="s">
+        <v>58</v>
       </c>
       <c r="AN7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO7" t="s">
         <v>59</v>
       </c>
       <c r="AP7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AU7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>59</v>
       </c>
       <c r="AX7" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>97</v>
       </c>
       <c r="AZ7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BA7" t="s">
         <v>58</v>
       </c>
-      <c r="BB7" t="s">
-        <v>58</v>
-      </c>
       <c r="BC7" t="s">
         <v>58</v>
       </c>
+      <c r="BD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1848,16 +2010,16 @@
         <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s">
         <v>62</v>
@@ -1866,7 +2028,7 @@
         <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q8" t="s">
         <v>38</v>
@@ -1880,80 +2042,208 @@
       <c r="T8" t="s">
         <v>58</v>
       </c>
-      <c r="U8" t="s">
-        <v>58</v>
-      </c>
       <c r="V8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="Z8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>59</v>
       </c>
       <c r="AD8" t="s">
         <v>58</v>
       </c>
-      <c r="AG8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>58</v>
+      <c r="AE8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>59</v>
       </c>
       <c r="AL8" t="s">
         <v>58</v>
       </c>
-      <c r="AM8" t="s">
-        <v>59</v>
-      </c>
       <c r="AN8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AO8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>59</v>
+        <v>59</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>38</v>
       </c>
       <c r="AU8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="AX8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ8" t="s">
         <v>59</v>
       </c>
       <c r="BA8" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="BB8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BC8" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
